--- a/Data/Excels/ARAP_NoGlobal_InRays_1.xlsx
+++ b/Data/Excels/ARAP_NoGlobal_InRays_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:S184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11233,6 +11233,5266 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>4,32e-02</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>18,35</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>21,99</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>4,92e-03</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>18,15</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>21,83</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2,58e-03</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>21,83</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2,19e-03</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>21,83</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1,60e-03</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>21,83</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>1,14e-03</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>18,13</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>21,82</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>446,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>3,91e-02</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>2,50</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>18,26</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>22,23</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>5,21e-03</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>17,98</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>22,02</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2,51e-03</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>17,95</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>1,65e-03</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>17,94</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>21,99</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>1,23e-03</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>17,93</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>21,99</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>9,96e-04</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>2,50</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>17,93</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>21,99</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>717,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>5,13e-02</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>20,41</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>24,50</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>6,00e-03</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>20,12</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>24,26</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>3,74e-03</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>20,13</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>24,26</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>3,05e-03</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>20,14</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>24,27</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2,76e-03</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>20,14</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>24,27</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2,55e-03</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>20,15</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>24,27</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>443,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1,48e-01</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>15,37</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>42,05</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>52,18</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2,74e-02</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>42,02</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>51,78</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1,36e-02</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>42,02</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>51,75</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1,07e-02</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>42,02</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>51,74</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>8,68e-03</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>42,02</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>51,74</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>7,07e-03</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>15,37</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>42,01</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>51,74</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>0,10</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>273,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>3,56e-02</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>20,80</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>25,26</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>5,75e-03</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>20,49</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>24,83</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>3,14e-03</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>20,47</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>24,82</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2,28e-03</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>20,47</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>24,82</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1,92e-03</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>20,47</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>24,82</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1,72e-03</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>20,47</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>24,82</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>204,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1,45e-01</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>19,26</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>45,62</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>56,31</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>1,77e-02</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>45,51</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>55,97</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>7,84e-03</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>45,55</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>55,98</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>4,63e-03</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>45,59</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>55,99</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>3,27e-03</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>45,60</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>55,99</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2,56e-03</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>19,26</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>45,60</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>55,99</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>236,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1,45e-01</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>45,63</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>70,31</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>106,23</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>9,91e-02</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>69,89</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>105,71</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>9,61e-02</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>69,88</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>105,67</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>9,51e-02</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>69,86</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>105,62</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>9,60e-02</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>69,81</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>105,57</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>9,67e-02</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>45,63</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>69,76</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>105,51</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>152,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>1,11e-01</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>43,22</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>74,27</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>116,32</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>5,67e-02</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>73,85</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>116,01</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>5,14e-02</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>73,85</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>115,96</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>5,04e-02</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>73,82</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>115,93</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>5,09e-02</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>73,76</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>115,88</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>5,13e-02</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>43,22</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>73,70</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>115,83</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>170,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>4,25e-01</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>81,00</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>109,68</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>168,99</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1,30</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>3,29e-01</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>109,17</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>168,38</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>3,55e-01</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>108,81</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>168,06</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>3,68e-01</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>108,54</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>167,81</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>3,79e-01</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>108,31</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>167,58</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>3,89e-01</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>81,00</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>108,12</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>167,41</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>133,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>5,78e-01</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>85,86</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>117,67</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>164,02</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>3,49e-01</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>117,56</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>163,64</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>3,59e-01</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>117,31</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>163,49</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>3,95e-01</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>117,09</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>163,34</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>4,05e-01</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>116,97</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>163,22</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>4,13e-01</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>85,86</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>116,85</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>163,12</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>0,70</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>136,09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Excels/ARAP_NoGlobal_InRays_1.xlsx
+++ b/Data/Excels/ARAP_NoGlobal_InRays_1.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>InRays</t>
+          <t>{'InRays'}</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2,95e-03</t>
+          <t>2,89e-03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2,67e-03</t>
+          <t>2,57e-03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2,93e-03</t>
+          <t>2,85e-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1046,7 +1046,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2,97e-03</t>
+          <t>2,85e-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,12 +1131,12 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3,03e-03</t>
+          <t>2,93e-03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>85,01</t>
+          <t>84,85</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1,80e-04</t>
+          <t>2,87e-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1441,17 +1441,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1,29e-04</t>
+          <t>1,60e-04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9,80e-05</t>
+          <t>1,54e-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1572,7 +1572,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7,56e-05</t>
+          <t>1,54e-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1696,17 +1696,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6,22e-05</t>
+          <t>1,56e-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>58,26</t>
+          <t>58,43</t>
         </is>
       </c>
     </row>
@@ -1887,12 +1887,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3,95e-03</t>
+          <t>3,92e-03</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4,12e-03</t>
+          <t>4,14e-03</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2052,17 +2052,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4,15e-03</t>
+          <t>4,29e-03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2137,17 +2137,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4,37e-03</t>
+          <t>4,38e-03</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4,44e-03</t>
+          <t>4,46e-03</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2282,12 +2282,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>70,13</t>
+          <t>70,25</t>
         </is>
       </c>
     </row>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1,49e-01</t>
+          <t>1,43e-01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2454,12 +2454,12 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>13,50</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>16,72</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -2493,17 +2493,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1,47e-01</t>
+          <t>1,46e-01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>17,33</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1,55e-01</t>
+          <t>1,50e-01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2624,12 +2624,12 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>17,71</t>
+          <t>17,75</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1,48e-01</t>
+          <t>1,50e-01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2709,12 +2709,12 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>14,38</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18,27</t>
+          <t>18,29</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -2748,17 +2748,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,56e-01</t>
+          <t>1,51e-01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2798,22 +2798,22 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>14,85</t>
+          <t>14,88</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18,95</t>
+          <t>19,06</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-21,36</t>
+          <t>-21,65</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>92,49</t>
+          <t>92,71</t>
         </is>
       </c>
     </row>
@@ -2934,17 +2934,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3,99e-04</t>
+          <t>6,18e-04</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2980,12 +2980,12 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,60</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3,56e-04</t>
+          <t>4,59e-04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3104,17 +3104,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3,33e-04</t>
+          <t>4,57e-04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3150,12 +3150,12 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3189,17 +3189,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3,23e-04</t>
+          <t>4,68e-04</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3235,12 +3235,12 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -3274,17 +3274,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3,20e-04</t>
+          <t>4,81e-04</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>45,44</t>
+          <t>44,94</t>
         </is>
       </c>
     </row>
@@ -3460,17 +3460,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2,58e-02</t>
+          <t>1,69e-01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3506,12 +3506,12 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>13,80</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16,61</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -3545,17 +3545,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12,64</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1,17e-02</t>
+          <t>1,79e-01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3591,12 +3591,12 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>14,16</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3630,17 +3630,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1,12e-02</t>
+          <t>1,80e-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3676,12 +3676,12 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>14,73</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>18,43</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -3715,17 +3715,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1,21e-02</t>
+          <t>1,98e-01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3761,12 +3761,12 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16,02</t>
+          <t>18,79</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -3800,17 +3800,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2,45e-02</t>
+          <t>2,09e-01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3850,22 +3850,22 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>15,57</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>15,90</t>
+          <t>19,54</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-0,10</t>
+          <t>-20,66</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>67,47</t>
+          <t>81,32</t>
         </is>
       </c>
     </row>
@@ -3986,17 +3986,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,20</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4,40e-04</t>
+          <t>6,50e-04</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4032,12 +4032,12 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1,90</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4,09e-04</t>
+          <t>5,32e-04</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4117,12 +4117,12 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,60</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="R43" t="inlineStr"/>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3,96e-04</t>
+          <t>5,46e-04</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4202,12 +4202,12 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3,91e-04</t>
+          <t>5,61e-04</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4287,12 +4287,12 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -4326,17 +4326,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3,91e-04</t>
+          <t>5,75e-04</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4376,22 +4376,22 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>47,36</t>
+          <t>47,89</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3,20e-03</t>
+          <t>3,41e-03</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4558,12 +4558,12 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,60</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -4602,12 +4602,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2,69e-03</t>
+          <t>2,73e-03</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2,51e-03</t>
+          <t>2,60e-03</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2,52e-03</t>
+          <t>2,61e-03</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4912,12 +4912,12 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>69,41</t>
+          <t>69,42</t>
         </is>
       </c>
     </row>
@@ -5038,17 +5038,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3,59e-03</t>
+          <t>4,18e-03</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5084,12 +5084,12 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -5123,17 +5123,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3,53e-03</t>
+          <t>3,91e-03</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -5208,17 +5208,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3,51e-03</t>
+          <t>3,92e-03</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5254,12 +5254,12 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -5293,17 +5293,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3,52e-03</t>
+          <t>3,99e-03</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5339,12 +5339,12 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -5378,17 +5378,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3,54e-03</t>
+          <t>4,05e-03</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5428,22 +5428,22 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>5,10</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>4,60</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>41,88</t>
+          <t>41,41</t>
         </is>
       </c>
     </row>
@@ -5564,17 +5564,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1,40e-01</t>
+          <t>1,39e-01</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5610,12 +5610,12 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>12,96</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16,23</t>
+          <t>16,24</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -5649,17 +5649,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1,43e-01</t>
+          <t>1,47e-01</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5695,12 +5695,12 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>16,65</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5764,28 +5764,28 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -5819,17 +5819,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1,51e-01</t>
+          <t>1,59e-01</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5849,28 +5849,28 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>14,23</t>
+          <t>14,49</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -5904,17 +5904,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1,63e-01</t>
+          <t>1,60e-01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5934,17 +5934,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5954,22 +5954,22 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>14,70</t>
+          <t>15,44</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>19,16</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>-17,18</t>
+          <t>-23,05</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>75,59</t>
+          <t>79,38</t>
         </is>
       </c>
     </row>
@@ -6090,17 +6090,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1,85e-03</t>
+          <t>1,98e-03</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6136,12 +6136,12 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -6175,17 +6175,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>0,55</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8,81e-04</t>
+          <t>9,11e-04</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6221,12 +6221,12 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -6260,17 +6260,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5,56e-04</t>
+          <t>5,60e-04</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6306,12 +6306,12 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -6345,17 +6345,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0,60</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3,95e-04</t>
+          <t>4,49e-04</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6391,12 +6391,12 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -6430,17 +6430,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0,60</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3,02e-04</t>
+          <t>3,86e-04</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6480,22 +6480,22 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>10,80</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>285,61</t>
+          <t>285,98</t>
         </is>
       </c>
     </row>
@@ -6616,17 +6616,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1,17e-03</t>
+          <t>1,18e-03</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -6701,17 +6701,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>7,08e-04</t>
+          <t>6,56e-04</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -6786,17 +6786,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>5,63e-04</t>
+          <t>5,23e-04</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6832,12 +6832,12 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,60</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -6871,17 +6871,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5,06e-04</t>
+          <t>4,61e-04</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6917,12 +6917,12 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,60</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -6956,17 +6956,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>4,63e-04</t>
+          <t>4,22e-04</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7006,22 +7006,22 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,60</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>303,62</t>
+          <t>303,84</t>
         </is>
       </c>
     </row>
@@ -7142,17 +7142,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3,23e-03</t>
+          <t>5,37e-03</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7188,12 +7188,12 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -7227,17 +7227,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1,78e-03</t>
+          <t>3,27e-03</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7273,12 +7273,12 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -7312,17 +7312,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1,47e-03</t>
+          <t>1,56e-03</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7358,12 +7358,12 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -7397,17 +7397,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>7,72e-04</t>
+          <t>9,07e-04</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7443,12 +7443,12 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>13,65</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -7482,17 +7482,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>5,69e-04</t>
+          <t>6,77e-04</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7532,22 +7532,22 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>13,65</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>230,40</t>
+          <t>230,91</t>
         </is>
       </c>
     </row>
@@ -7668,17 +7668,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>7,99e-02</t>
+          <t>7,01e-02</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7714,12 +7714,12 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>28,69</t>
+          <t>28,34</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>35,17</t>
+          <t>34,69</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -7753,17 +7753,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6,36e-02</t>
+          <t>6,30e-02</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7799,12 +7799,12 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>28,83</t>
+          <t>28,43</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>35,26</t>
+          <t>34,79</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -7843,12 +7843,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6,33e-02</t>
+          <t>6,41e-02</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7884,12 +7884,12 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>28,92</t>
+          <t>28,59</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>35,37</t>
+          <t>35,00</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>6,69e-02</t>
+          <t>6,49e-02</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7969,12 +7969,12 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>29,15</t>
+          <t>28,75</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>35,71</t>
+          <t>35,20</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -8008,17 +8008,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6,56e-02</t>
+          <t>6,61e-02</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8058,22 +8058,22 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>28,94</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>35,87</t>
+          <t>35,44</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-12,56</t>
+          <t>-11,27</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>178,81</t>
+          <t>176,76</t>
         </is>
       </c>
     </row>
@@ -8194,17 +8194,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1,20e-03</t>
+          <t>1,29e-03</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8240,12 +8240,12 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>14,10</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
@@ -8279,17 +8279,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>5,91e-04</t>
+          <t>7,06e-04</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8325,12 +8325,12 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>14,13</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
@@ -8364,17 +8364,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>5,19e-04</t>
+          <t>6,23e-04</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8410,12 +8410,12 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>14,13</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -8449,17 +8449,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>4,44e-04</t>
+          <t>5,24e-04</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8495,12 +8495,12 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>14,13</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -8534,17 +8534,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>4,00e-04</t>
+          <t>4,55e-04</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8584,22 +8584,22 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>14,13</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,70</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>141,32</t>
+          <t>140,88</t>
         </is>
       </c>
     </row>
@@ -8720,17 +8720,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>5,00e-02</t>
+          <t>5,09e-02</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8766,12 +8766,12 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>37,42</t>
+          <t>37,43</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>46,64</t>
+          <t>46,65</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4,38e-02</t>
+          <t>4,48e-02</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>46,69</t>
+          <t>46,70</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>4,58e-02</t>
+          <t>4,59e-02</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8936,12 +8936,12 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>37,62</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>46,85</t>
+          <t>46,78</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4,80e-02</t>
+          <t>4,76e-02</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9021,12 +9021,12 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>37,87</t>
+          <t>37,81</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>46,95</t>
+          <t>46,90</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -9060,17 +9060,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>5,27e-02</t>
+          <t>4,92e-02</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9110,22 +9110,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>37,96</t>
+          <t>37,94</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>47,03</t>
+          <t>47,01</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>189,26</t>
+          <t>189,14</t>
         </is>
       </c>
     </row>
@@ -9246,17 +9246,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1,75e-02</t>
+          <t>1,93e-02</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -9292,12 +9292,12 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>29,50</t>
+          <t>29,33</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>41,55</t>
+          <t>41,43</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -9331,17 +9331,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1,70e-02</t>
+          <t>1,85e-02</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -9377,12 +9377,12 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>29,48</t>
+          <t>29,32</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>41,52</t>
+          <t>41,41</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -9416,17 +9416,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1,70e-02</t>
+          <t>1,79e-02</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -9462,12 +9462,12 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>29,43</t>
+          <t>29,31</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>41,48</t>
+          <t>41,39</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -9501,17 +9501,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1,71e-02</t>
+          <t>1,73e-02</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -9547,12 +9547,12 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>29,38</t>
+          <t>29,30</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>41,44</t>
+          <t>41,37</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -9586,17 +9586,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,10</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1,71e-02</t>
+          <t>1,69e-02</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -9636,22 +9636,22 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>29,34</t>
+          <t>29,29</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>41,40</t>
+          <t>41,35</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>125,18</t>
+          <t>124,98</t>
         </is>
       </c>
     </row>
@@ -9772,17 +9772,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2,04e-02</t>
+          <t>2,24e-02</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -9818,12 +9818,12 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>32,43</t>
+          <t>32,35</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>43,77</t>
+          <t>43,78</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -9857,17 +9857,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>1,98e-02</t>
+          <t>2,08e-02</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -9903,12 +9903,12 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>32,42</t>
+          <t>32,34</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>43,75</t>
+          <t>43,74</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2,00e-02</t>
+          <t>2,02e-02</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -9988,7 +9988,7 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>32,39</t>
+          <t>32,34</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -10027,17 +10027,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2,01e-02</t>
+          <t>2,02e-02</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10073,7 +10073,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>32,37</t>
+          <t>32,32</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -10117,12 +10117,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2,03e-02</t>
+          <t>2,02e-02</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10162,22 +10162,22 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>32,35</t>
+          <t>32,31</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>43,64</t>
+          <t>43,65</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,10</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>129,64</t>
+          <t>129,46</t>
         </is>
       </c>
     </row>
@@ -10298,17 +10298,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1,14e-01</t>
+          <t>1,21e-01</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10344,12 +10344,12 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>51,48</t>
+          <t>50,85</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>73,18</t>
+          <t>72,57</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -10383,17 +10383,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1,13e-01</t>
+          <t>1,21e-01</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -10429,12 +10429,12 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>51,48</t>
+          <t>50,86</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>73,16</t>
+          <t>72,56</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -10468,17 +10468,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1,12e-01</t>
+          <t>1,18e-01</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -10514,12 +10514,12 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>51,46</t>
+          <t>50,86</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>73,12</t>
+          <t>72,54</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -10553,17 +10553,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,10</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>1,14e-01</t>
+          <t>1,15e-01</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -10599,12 +10599,12 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>51,38</t>
+          <t>50,83</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>73,05</t>
+          <t>72,51</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -10638,17 +10638,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>1,20e-01</t>
+          <t>1,17e-01</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -10688,22 +10688,22 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>51,32</t>
+          <t>50,79</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>72,98</t>
+          <t>72,47</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>111,38</t>
+          <t>110,23</t>
         </is>
       </c>
     </row>
@@ -10824,17 +10824,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1,33e-01</t>
+          <t>1,29e-01</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -10909,17 +10909,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1,28e-01</t>
+          <t>1,22e-01</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -10955,7 +10955,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>58,82</t>
+          <t>58,83</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -10994,17 +10994,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1,24e-01</t>
+          <t>1,28e-01</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11040,12 +11040,12 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>58,72</t>
+          <t>58,76</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>78,88</t>
+          <t>78,91</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>78,80</t>
+          <t>78,81</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -11164,17 +11164,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1,33e-01</t>
+          <t>1,31e-01</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -11214,22 +11214,22 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>58,59</t>
+          <t>58,63</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>78,74</t>
+          <t>78,76</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>123,90</t>
+          <t>123,98</t>
         </is>
       </c>
     </row>
@@ -11350,17 +11350,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>4,92e-03</t>
+          <t>7,33e-03</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -11396,12 +11396,12 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>18,15</t>
+          <t>18,39</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>21,83</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
@@ -11435,17 +11435,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2,58e-03</t>
+          <t>3,54e-03</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -11481,12 +11481,12 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>18,14</t>
+          <t>18,38</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>21,83</t>
+          <t>22,07</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
@@ -11520,17 +11520,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2,19e-03</t>
+          <t>2,83e-03</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -11566,12 +11566,12 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>18,14</t>
+          <t>18,38</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>21,83</t>
+          <t>22,07</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -11605,17 +11605,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1,60e-03</t>
+          <t>1,91e-03</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -11651,12 +11651,12 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>18,14</t>
+          <t>18,37</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>21,83</t>
+          <t>22,07</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -11690,17 +11690,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>1,14e-03</t>
+          <t>1,32e-03</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -11740,22 +11740,22 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>18,13</t>
+          <t>18,36</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>22,07</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>446,93</t>
+          <t>452,54</t>
         </is>
       </c>
     </row>
@@ -11876,17 +11876,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>5,21e-03</t>
+          <t>5,16e-03</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -11922,7 +11922,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>17,97</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -11961,17 +11961,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2,51e-03</t>
+          <t>2,46e-03</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -12051,12 +12051,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1,65e-03</t>
+          <t>1,64e-03</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1,23e-03</t>
+          <t>1,25e-03</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>9,96e-04</t>
+          <t>1,03e-03</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -12271,17 +12271,17 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>21,99</t>
+          <t>21,98</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,80</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>717,18</t>
+          <t>717,11</t>
         </is>
       </c>
     </row>
@@ -12402,17 +12402,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>6,00e-03</t>
+          <t>5,75e-03</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12448,7 +12448,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>20,12</t>
+          <t>20,10</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -12487,17 +12487,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>3,74e-03</t>
+          <t>3,55e-03</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12533,12 +12533,12 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>20,13</t>
+          <t>20,11</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>24,26</t>
+          <t>24,27</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -12572,17 +12572,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>3,05e-03</t>
+          <t>2,95e-03</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -12618,7 +12618,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>20,14</t>
+          <t>20,12</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -12657,17 +12657,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2,76e-03</t>
+          <t>2,69e-03</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -12703,7 +12703,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>20,14</t>
+          <t>20,13</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -12742,17 +12742,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2,55e-03</t>
+          <t>2,47e-03</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -12792,22 +12792,22 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>20,15</t>
+          <t>20,14</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>24,27</t>
+          <t>24,28</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>443,29</t>
+          <t>442,96</t>
         </is>
       </c>
     </row>
@@ -12928,17 +12928,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2,74e-02</t>
+          <t>2,69e-02</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -12974,12 +12974,12 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>42,02</t>
+          <t>42,03</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>51,78</t>
+          <t>51,72</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1,36e-02</t>
+          <t>1,38e-02</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -13059,12 +13059,12 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>42,02</t>
+          <t>42,00</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>51,75</t>
+          <t>51,68</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>1,07e-02</t>
+          <t>1,10e-02</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -13144,12 +13144,12 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>42,02</t>
+          <t>42,00</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>51,67</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>8,68e-03</t>
+          <t>9,00e-03</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13223,18 +13223,18 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>42,02</t>
+          <t>41,99</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>51,67</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -13268,17 +13268,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>7,07e-03</t>
+          <t>7,56e-03</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -13318,22 +13318,22 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>42,01</t>
+          <t>41,99</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>51,67</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>273,26</t>
+          <t>273,14</t>
         </is>
       </c>
     </row>
@@ -13454,17 +13454,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>5,75e-03</t>
+          <t>5,40e-03</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -13500,12 +13500,12 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>20,49</t>
+          <t>20,44</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>24,83</t>
+          <t>24,97</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -13539,17 +13539,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>3,14e-03</t>
+          <t>2,96e-03</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -13585,12 +13585,12 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>20,43</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>24,82</t>
+          <t>24,96</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -13624,17 +13624,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2,28e-03</t>
+          <t>2,20e-03</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -13670,12 +13670,12 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>20,42</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>24,82</t>
+          <t>24,96</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -13709,17 +13709,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
           <t>0,47</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>1,92e-03</t>
+          <t>1,88e-03</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -13755,12 +13755,12 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>20,42</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>24,82</t>
+          <t>24,96</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -13794,7 +13794,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1,72e-03</t>
+          <t>1,71e-03</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13844,22 +13844,22 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>20,42</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>24,82</t>
+          <t>24,96</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>204,67</t>
+          <t>204,20</t>
         </is>
       </c>
     </row>
@@ -13985,12 +13985,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1,77e-02</t>
+          <t>1,76e-02</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -14020,18 +14020,18 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>45,51</t>
+          <t>45,43</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>55,97</t>
+          <t>55,86</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -14065,17 +14065,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>7,84e-03</t>
+          <t>7,59e-03</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -14105,18 +14105,18 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>45,55</t>
+          <t>45,49</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>55,98</t>
+          <t>55,88</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -14150,17 +14150,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>4,63e-03</t>
+          <t>4,56e-03</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14190,18 +14190,18 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>45,59</t>
+          <t>45,53</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>55,99</t>
+          <t>55,89</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -14240,12 +14240,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>3,27e-03</t>
+          <t>3,32e-03</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14275,18 +14275,18 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>45,60</t>
+          <t>45,53</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>55,99</t>
+          <t>55,89</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -14325,12 +14325,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2,56e-03</t>
+          <t>2,61e-03</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -14370,22 +14370,22 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>45,60</t>
+          <t>45,53</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>55,99</t>
+          <t>55,88</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>236,78</t>
+          <t>236,39</t>
         </is>
       </c>
     </row>
@@ -14506,17 +14506,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>9,91e-02</t>
+          <t>1,12e-01</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -14552,12 +14552,12 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>69,89</t>
+          <t>69,91</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>105,71</t>
+          <t>105,78</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -14591,17 +14591,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>9,61e-02</t>
+          <t>1,04e-01</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>105,67</t>
+          <t>105,70</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -14676,17 +14676,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>9,51e-02</t>
+          <t>1,01e-01</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -14722,12 +14722,12 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>69,86</t>
+          <t>69,87</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>105,62</t>
+          <t>105,66</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -14761,17 +14761,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>9,60e-02</t>
+          <t>9,90e-02</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -14807,12 +14807,12 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>69,81</t>
+          <t>69,87</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>105,57</t>
+          <t>105,61</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -14846,17 +14846,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>9,67e-02</t>
+          <t>9,85e-02</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -14896,22 +14896,22 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>69,76</t>
+          <t>69,86</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>105,51</t>
+          <t>105,59</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>152,89</t>
+          <t>153,10</t>
         </is>
       </c>
     </row>
@@ -15032,17 +15032,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>5,67e-02</t>
+          <t>6,70e-02</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -15078,12 +15078,12 @@
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>73,85</t>
+          <t>73,81</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>116,01</t>
+          <t>116,03</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -15117,17 +15117,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>5,14e-02</t>
+          <t>5,78e-02</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -15163,7 +15163,7 @@
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>73,85</t>
+          <t>73,76</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
@@ -15202,17 +15202,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>5,04e-02</t>
+          <t>5,51e-02</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -15248,12 +15248,12 @@
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>73,82</t>
+          <t>73,74</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>115,93</t>
+          <t>115,92</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -15287,17 +15287,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>5,09e-02</t>
+          <t>5,38e-02</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -15333,12 +15333,12 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>73,76</t>
+          <t>73,72</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>115,88</t>
+          <t>115,89</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -15377,12 +15377,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>5,13e-02</t>
+          <t>5,37e-02</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -15422,22 +15422,22 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>73,70</t>
+          <t>73,67</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>115,83</t>
+          <t>115,85</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>170,54</t>
+          <t>170,47</t>
         </is>
       </c>
     </row>
@@ -15558,17 +15558,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1,30</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>3,29e-01</t>
+          <t>3,48e-01</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -15604,12 +15604,12 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>109,17</t>
+          <t>109,03</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>168,38</t>
+          <t>168,28</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>3,55e-01</t>
+          <t>3,60e-01</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -15689,12 +15689,12 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>108,81</t>
+          <t>108,77</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>168,06</t>
+          <t>168,00</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>3,68e-01</t>
+          <t>3,74e-01</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -15774,12 +15774,12 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>108,54</t>
+          <t>108,36</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>167,81</t>
+          <t>167,62</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -15813,17 +15813,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>3,79e-01</t>
+          <t>3,85e-01</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -15859,12 +15859,12 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>108,31</t>
+          <t>108,03</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>167,58</t>
+          <t>167,31</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>3,89e-01</t>
+          <t>3,96e-01</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -15948,22 +15948,22 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>108,12</t>
+          <t>107,82</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>167,41</t>
+          <t>167,11</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>133,49</t>
+          <t>133,11</t>
         </is>
       </c>
     </row>
@@ -16084,17 +16084,17 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>3,49e-01</t>
+          <t>4,11e-01</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -16130,12 +16130,12 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>117,56</t>
+          <t>117,61</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>163,64</t>
+          <t>163,75</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -16169,17 +16169,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>3,59e-01</t>
+          <t>3,98e-01</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -16215,12 +16215,12 @@
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
-          <t>117,31</t>
+          <t>117,47</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>163,49</t>
+          <t>163,60</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -16254,17 +16254,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>3,95e-01</t>
+          <t>4,08e-01</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -16300,12 +16300,12 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>117,09</t>
+          <t>117,25</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>163,34</t>
+          <t>163,42</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -16339,17 +16339,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>4,05e-01</t>
+          <t>4,15e-01</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -16385,12 +16385,12 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>116,97</t>
+          <t>117,04</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>163,22</t>
+          <t>163,25</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -16424,17 +16424,17 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>4,13e-01</t>
+          <t>4,22e-01</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -16474,22 +16474,22 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>116,85</t>
+          <t>116,93</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>163,12</t>
+          <t>163,16</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>0,70</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>136,09</t>
+          <t>136,19</t>
         </is>
       </c>
     </row>
